--- a/output_withlinks.xlsx
+++ b/output_withlinks.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -22,103 +22,142 @@
     <t>Email</t>
   </si>
   <si>
+    <t>TeamsChat</t>
+  </si>
+  <si>
+    <t>hansel</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>horse</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>there</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>hansel@example.com</t>
+  </si>
+  <si>
+    <t>hello@example.com</t>
+  </si>
+  <si>
+    <t>this@example.com</t>
+  </si>
+  <si>
+    <t>is@example.com</t>
+  </si>
+  <si>
+    <t>a@example.com</t>
+  </si>
+  <si>
+    <t>test@example.com</t>
+  </si>
+  <si>
+    <t>yes@example.com</t>
+  </si>
+  <si>
+    <t>no@example.com</t>
+  </si>
+  <si>
+    <t>somebody@example.com</t>
+  </si>
+  <si>
+    <t>will@example.com</t>
+  </si>
+  <si>
+    <t>be@example.com</t>
+  </si>
+  <si>
+    <t>there@example.com</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/chat/0/0?Users=:hansel@example.com</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/chat/0/0?Users=:hello@example.com</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/chat/0/0?Users=:this@example.com</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/chat/0/0?Users=:is@example.com</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/chat/0/0?Users=:a@example.com</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/chat/0/0?Users=:test@example.com</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/chat/0/0?Users=:yes@example.com</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/chat/0/0?Users=:no@example.com</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/chat/0/0?Users=:somebody@example.com</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/chat/0/0?Users=:will@example.com</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/chat/0/0?Users=:be@example.com</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/chat/0/0?Users=:there@example.com</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>bot</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>stable</t>
+  </si>
+  <si>
     <t>fruit</t>
   </si>
   <si>
-    <t>hello</t>
-  </si>
-  <si>
     <t>carrot</t>
   </si>
   <si>
-    <t>battery</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>match</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>bot</t>
+    <t>for</t>
+  </si>
+  <si>
+    <t>be</t>
   </si>
   <si>
     <t>will</t>
-  </si>
-  <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>hansel@example.com</t>
-  </si>
-  <si>
-    <t>hello@example.com</t>
-  </si>
-  <si>
-    <t>this@example.com</t>
-  </si>
-  <si>
-    <t>is@example.com</t>
-  </si>
-  <si>
-    <t>a@example.com</t>
-  </si>
-  <si>
-    <t>test@example.com</t>
-  </si>
-  <si>
-    <t>yes@example.com</t>
-  </si>
-  <si>
-    <t>no@example.com</t>
-  </si>
-  <si>
-    <t>somebody@example.com</t>
-  </si>
-  <si>
-    <t>will@example.com</t>
-  </si>
-  <si>
-    <t>be@example.com</t>
-  </si>
-  <si>
-    <t>there@example.com</t>
-  </si>
-  <si>
-    <t>somebody</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>there</t>
-  </si>
-  <si>
-    <t>stable</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>horse</t>
-  </si>
-  <si>
-    <t>hansel</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
 </sst>
 </file>
@@ -489,13 +528,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,206 +542,308 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="F10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="F11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="F12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="D3" r:id="rId4"/>
-    <hyperlink ref="B4" r:id="rId5"/>
-    <hyperlink ref="D4" r:id="rId6"/>
-    <hyperlink ref="B5" r:id="rId7"/>
-    <hyperlink ref="D5" r:id="rId8"/>
-    <hyperlink ref="B6" r:id="rId9"/>
-    <hyperlink ref="D6" r:id="rId10"/>
-    <hyperlink ref="B7" r:id="rId11"/>
-    <hyperlink ref="D7" r:id="rId12"/>
-    <hyperlink ref="B8" r:id="rId13"/>
-    <hyperlink ref="D8" r:id="rId14"/>
-    <hyperlink ref="B9" r:id="rId15"/>
-    <hyperlink ref="D9" r:id="rId16"/>
-    <hyperlink ref="B10" r:id="rId17"/>
-    <hyperlink ref="D10" r:id="rId18"/>
-    <hyperlink ref="B11" r:id="rId19"/>
-    <hyperlink ref="D11" r:id="rId20"/>
-    <hyperlink ref="B12" r:id="rId21"/>
-    <hyperlink ref="D12" r:id="rId22"/>
-    <hyperlink ref="B13" r:id="rId23"/>
-    <hyperlink ref="D13" r:id="rId24"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId4"/>
+    <hyperlink ref="B3" r:id="rId5"/>
+    <hyperlink ref="C3" r:id="rId6"/>
+    <hyperlink ref="E3" r:id="rId7"/>
+    <hyperlink ref="F3" r:id="rId8"/>
+    <hyperlink ref="B4" r:id="rId9"/>
+    <hyperlink ref="C4" r:id="rId10"/>
+    <hyperlink ref="E4" r:id="rId11"/>
+    <hyperlink ref="F4" r:id="rId12"/>
+    <hyperlink ref="B5" r:id="rId13"/>
+    <hyperlink ref="C5" r:id="rId14"/>
+    <hyperlink ref="E5" r:id="rId15"/>
+    <hyperlink ref="F5" r:id="rId16"/>
+    <hyperlink ref="B6" r:id="rId17"/>
+    <hyperlink ref="C6" r:id="rId18"/>
+    <hyperlink ref="E6" r:id="rId19"/>
+    <hyperlink ref="F6" r:id="rId20"/>
+    <hyperlink ref="B7" r:id="rId21"/>
+    <hyperlink ref="C7" r:id="rId22"/>
+    <hyperlink ref="E7" r:id="rId23"/>
+    <hyperlink ref="F7" r:id="rId24"/>
+    <hyperlink ref="B8" r:id="rId25"/>
+    <hyperlink ref="C8" r:id="rId26"/>
+    <hyperlink ref="E8" r:id="rId27"/>
+    <hyperlink ref="F8" r:id="rId28"/>
+    <hyperlink ref="B9" r:id="rId29"/>
+    <hyperlink ref="C9" r:id="rId30"/>
+    <hyperlink ref="E9" r:id="rId31"/>
+    <hyperlink ref="F9" r:id="rId32"/>
+    <hyperlink ref="B10" r:id="rId33"/>
+    <hyperlink ref="C10" r:id="rId34"/>
+    <hyperlink ref="E10" r:id="rId35"/>
+    <hyperlink ref="F10" r:id="rId36"/>
+    <hyperlink ref="B11" r:id="rId37"/>
+    <hyperlink ref="C11" r:id="rId38"/>
+    <hyperlink ref="E11" r:id="rId39"/>
+    <hyperlink ref="F11" r:id="rId40"/>
+    <hyperlink ref="B12" r:id="rId41"/>
+    <hyperlink ref="C12" r:id="rId42"/>
+    <hyperlink ref="E12" r:id="rId43"/>
+    <hyperlink ref="F12" r:id="rId44"/>
+    <hyperlink ref="B13" r:id="rId45"/>
+    <hyperlink ref="C13" r:id="rId46"/>
+    <hyperlink ref="E13" r:id="rId47"/>
+    <hyperlink ref="F13" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output_withlinks.xlsx
+++ b/output_withlinks.xlsx
@@ -25,139 +25,139 @@
     <t>TeamsChat</t>
   </si>
   <si>
+    <t>bot</t>
+  </si>
+  <si>
+    <t>will</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
     <t>hansel</t>
   </si>
   <si>
-    <t>match</t>
+    <t>is</t>
+  </si>
+  <si>
+    <t>there</t>
+  </si>
+  <si>
+    <t>somebody</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>horse</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>hansel@example.com</t>
+  </si>
+  <si>
+    <t>hello@example.com</t>
+  </si>
+  <si>
+    <t>this@example.com</t>
+  </si>
+  <si>
+    <t>is@example.com</t>
+  </si>
+  <si>
+    <t>a@example.com</t>
+  </si>
+  <si>
+    <t>test@example.com</t>
+  </si>
+  <si>
+    <t>yes@example.com</t>
+  </si>
+  <si>
+    <t>no@example.com</t>
+  </si>
+  <si>
+    <t>somebody@example.com</t>
+  </si>
+  <si>
+    <t>will@example.com</t>
+  </si>
+  <si>
+    <t>be@example.com</t>
+  </si>
+  <si>
+    <t>there@example.com</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/chat/0/0?Users=:hansel@example.com</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/chat/0/0?Users=:hello@example.com</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/chat/0/0?Users=:this@example.com</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/chat/0/0?Users=:is@example.com</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/chat/0/0?Users=:a@example.com</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/chat/0/0?Users=:test@example.com</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/chat/0/0?Users=:yes@example.com</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/chat/0/0?Users=:no@example.com</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/chat/0/0?Users=:somebody@example.com</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/chat/0/0?Users=:will@example.com</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/chat/0/0?Users=:be@example.com</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/chat/0/0?Users=:there@example.com</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>stable</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>for</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>horse</t>
-  </si>
-  <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>is</t>
+    <t>and</t>
+  </si>
+  <si>
+    <t>carrot</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
   <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>there</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>hansel@example.com</t>
-  </si>
-  <si>
-    <t>hello@example.com</t>
-  </si>
-  <si>
-    <t>this@example.com</t>
-  </si>
-  <si>
-    <t>is@example.com</t>
-  </si>
-  <si>
-    <t>a@example.com</t>
-  </si>
-  <si>
-    <t>test@example.com</t>
-  </si>
-  <si>
-    <t>yes@example.com</t>
-  </si>
-  <si>
-    <t>no@example.com</t>
-  </si>
-  <si>
-    <t>somebody@example.com</t>
-  </si>
-  <si>
-    <t>will@example.com</t>
-  </si>
-  <si>
-    <t>be@example.com</t>
-  </si>
-  <si>
-    <t>there@example.com</t>
-  </si>
-  <si>
-    <t>https://teams.microsoft.com/l/chat/0/0?Users=:hansel@example.com</t>
-  </si>
-  <si>
-    <t>https://teams.microsoft.com/l/chat/0/0?Users=:hello@example.com</t>
-  </si>
-  <si>
-    <t>https://teams.microsoft.com/l/chat/0/0?Users=:this@example.com</t>
-  </si>
-  <si>
-    <t>https://teams.microsoft.com/l/chat/0/0?Users=:is@example.com</t>
-  </si>
-  <si>
-    <t>https://teams.microsoft.com/l/chat/0/0?Users=:a@example.com</t>
-  </si>
-  <si>
-    <t>https://teams.microsoft.com/l/chat/0/0?Users=:test@example.com</t>
-  </si>
-  <si>
-    <t>https://teams.microsoft.com/l/chat/0/0?Users=:yes@example.com</t>
-  </si>
-  <si>
-    <t>https://teams.microsoft.com/l/chat/0/0?Users=:no@example.com</t>
-  </si>
-  <si>
-    <t>https://teams.microsoft.com/l/chat/0/0?Users=:somebody@example.com</t>
-  </si>
-  <si>
-    <t>https://teams.microsoft.com/l/chat/0/0?Users=:will@example.com</t>
-  </si>
-  <si>
-    <t>https://teams.microsoft.com/l/chat/0/0?Users=:be@example.com</t>
-  </si>
-  <si>
-    <t>https://teams.microsoft.com/l/chat/0/0?Users=:there@example.com</t>
-  </si>
-  <si>
-    <t>battery</t>
-  </si>
-  <si>
-    <t>bot</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>stable</t>
-  </si>
-  <si>
-    <t>fruit</t>
-  </si>
-  <si>
-    <t>carrot</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>will</t>
   </si>
 </sst>
 </file>
@@ -559,19 +559,19 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -579,19 +579,19 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -599,19 +599,19 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -619,19 +619,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -639,19 +639,19 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -659,139 +659,139 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
         <v>47</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
